--- a/data/markov/Power_ThermalGen.xlsx
+++ b/data/markov/Power_ThermalGen.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FelixAuer\Git\LEGO-Pyomo\data\markov\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85521D87-C3E7-477C-83EF-53CA8CEBFB14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{390EA016-82FC-4720-9590-947A50F0DCD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-5835" yWindow="-21720" windowWidth="38640" windowHeight="21120" tabRatio="733" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="32565" yWindow="-21720" windowWidth="38640" windowHeight="21120" tabRatio="733" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Power ThermalGen" sheetId="105" r:id="rId1"/>
@@ -143,7 +143,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="55">
   <si>
     <t>[MW]</t>
   </si>
@@ -266,12 +266,6 @@
   </si>
   <si>
     <t>Gas</t>
-  </si>
-  <si>
-    <t>Node_2</t>
-  </si>
-  <si>
-    <t>Node_3</t>
   </si>
   <si>
     <t>Node_1</t>
@@ -942,7 +936,7 @@
     <sheetView showGridLines="0" tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="O55" sqref="O55"/>
-      <selection pane="bottomLeft" activeCell="L12" sqref="L12"/>
+      <selection pane="bottomLeft" activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -958,7 +952,7 @@
   <sheetData>
     <row r="1" spans="2:30" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B1" s="25" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="2:30" x14ac:dyDescent="0.25">
@@ -981,10 +975,10 @@
         <v>17</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="L3" s="4" t="s">
         <v>24</v>
@@ -1029,19 +1023,19 @@
         <v>7</v>
       </c>
       <c r="Z3" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA3" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="AB3" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="AA3" s="26" t="s">
+      <c r="AC3" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="AB3" s="26" t="s">
+      <c r="AD3" s="26" t="s">
         <v>47</v>
-      </c>
-      <c r="AC3" s="26" t="s">
-        <v>48</v>
-      </c>
-      <c r="AD3" s="26" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="4" spans="2:30" x14ac:dyDescent="0.25">
@@ -1117,10 +1111,10 @@
         <v>0</v>
       </c>
       <c r="J6" s="8" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K6" s="8" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="L6" s="8" t="s">
         <v>26</v>
@@ -1176,7 +1170,7 @@
         <v>30</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E7" s="12">
         <v>0</v>
@@ -1240,7 +1234,7 @@
         <v>15</v>
       </c>
       <c r="Z7" s="29" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AA7" s="30">
         <v>2010</v>
@@ -1325,7 +1319,7 @@
         <v>49.700699999999998</v>
       </c>
       <c r="Z8" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="AB8" s="3"/>
       <c r="AC8" s="32">
@@ -1343,7 +1337,7 @@
         <v>39</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E9" s="12">
         <v>0</v>
@@ -1425,7 +1419,7 @@
         <v>39</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E10" s="12">
         <v>0</v>
@@ -1489,7 +1483,7 @@
         <v>52.648899999999998</v>
       </c>
       <c r="Z10" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="AB10" s="3"/>
       <c r="AC10" s="32">
@@ -1571,7 +1565,7 @@
         <v>49.143999999999998</v>
       </c>
       <c r="Z11" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="AB11" s="3"/>
       <c r="AC11" s="32">
@@ -1589,31 +1583,31 @@
         <v>40</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E12" s="12">
         <v>1</v>
       </c>
       <c r="F12" s="13">
         <f>1435-F13+1</f>
-        <v>521</v>
+        <v>446</v>
       </c>
       <c r="G12" s="14">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="H12" s="14">
         <f>F12</f>
-        <v>521</v>
+        <v>446</v>
       </c>
       <c r="I12" s="14">
         <f>H12</f>
-        <v>521</v>
+        <v>446</v>
       </c>
       <c r="J12" s="33">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="K12" s="33">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="L12" s="14">
         <v>200</v>
@@ -1674,24 +1668,24 @@
         <v>40</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E13" s="12">
         <v>1</v>
       </c>
       <c r="F13" s="13">
-        <v>915</v>
+        <v>990</v>
       </c>
       <c r="G13" s="14">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="H13" s="14">
         <f>F13</f>
-        <v>915</v>
+        <v>990</v>
       </c>
       <c r="I13" s="14">
         <f>H13</f>
-        <v>915</v>
+        <v>990</v>
       </c>
       <c r="J13" s="33">
         <v>1</v>
@@ -2337,6 +2331,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101004934E3CB1C58BA43BC6E229E2BF20201" ma:contentTypeVersion="4" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="e33ccc94e63df24f58cb47229b46e190">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="87003a75-b64f-4b22-bf19-aa30740e3d46" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0f0f7a5bb162b669de9ce8ff8278c29f" ns2:_="">
     <xsd:import namespace="87003a75-b64f-4b22-bf19-aa30740e3d46"/>
@@ -2482,15 +2485,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0155F7A0-74CD-4575-8C0B-A34C113F80FE}">
   <ds:schemaRefs>
@@ -2508,6 +2502,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{13778B2C-CE05-4B32-8196-2F381FEAC95A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{773946F7-566C-458F-95C9-79B0CCE20E87}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2523,12 +2525,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{13778B2C-CE05-4B32-8196-2F381FEAC95A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/data/markov/Power_ThermalGen.xlsx
+++ b/data/markov/Power_ThermalGen.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FelixAuer\Git\LEGO-Pyomo\data\markov\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{390EA016-82FC-4720-9590-947A50F0DCD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EF5B3EC-4386-4681-B061-C48519A485A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32565" yWindow="-21720" windowWidth="38640" windowHeight="21120" tabRatio="733" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" tabRatio="733" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Power ThermalGen" sheetId="105" r:id="rId1"/>
@@ -378,31 +378,37 @@
       <sz val="11"/>
       <color theme="0"/>
       <name val="Aptos"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="Aptos"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <name val="Aptos"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color theme="10"/>
       <name val="Aptos"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="Aptos"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF3366FF"/>
       <name val="Aptos"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="9"/>
@@ -416,6 +422,7 @@
       <sz val="18"/>
       <color theme="0"/>
       <name val="Aptos"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="9"/>
@@ -427,6 +434,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="9">
@@ -936,7 +944,7 @@
     <sheetView showGridLines="0" tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="O55" sqref="O55"/>
-      <selection pane="bottomLeft" activeCell="D18" sqref="D18"/>
+      <selection pane="bottomLeft" activeCell="R13" sqref="R13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1604,10 +1612,10 @@
         <v>446</v>
       </c>
       <c r="J12" s="33">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K12" s="33">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L12" s="14">
         <v>200</v>
@@ -1628,10 +1636,10 @@
         <v>800000</v>
       </c>
       <c r="R12" s="19">
-        <v>3.8</v>
+        <v>4.5</v>
       </c>
       <c r="S12" s="18">
-        <v>100</v>
+        <v>2000000</v>
       </c>
       <c r="T12" s="12"/>
       <c r="U12" s="21">
@@ -2325,12 +2333,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -2339,7 +2341,7 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101004934E3CB1C58BA43BC6E229E2BF20201" ma:contentTypeVersion="4" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="e33ccc94e63df24f58cb47229b46e190">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="87003a75-b64f-4b22-bf19-aa30740e3d46" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0f0f7a5bb162b669de9ce8ff8278c29f" ns2:_="">
     <xsd:import namespace="87003a75-b64f-4b22-bf19-aa30740e3d46"/>
@@ -2485,23 +2487,13 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0155F7A0-74CD-4575-8C0B-A34C113F80FE}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="87003a75-b64f-4b22-bf19-aa30740e3d46"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{13778B2C-CE05-4B32-8196-2F381FEAC95A}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
@@ -2509,7 +2501,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{773946F7-566C-458F-95C9-79B0CCE20E87}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2525,4 +2517,20 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0155F7A0-74CD-4575-8C0B-A34C113F80FE}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="87003a75-b64f-4b22-bf19-aa30740e3d46"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/data/markov/Power_ThermalGen.xlsx
+++ b/data/markov/Power_ThermalGen.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FelixAuer\Git\LEGO-Pyomo\data\markov\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EB3D083-597B-4C2B-B754-E798E679D44C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A91194CD-6CE5-4CB6-825D-9CD58F6C790D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="17385" tabRatio="733" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" tabRatio="733" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ScenarioA" sheetId="105" r:id="rId1"/>
@@ -675,7 +675,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -748,7 +748,6 @@
     <xf numFmtId="9" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Data" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -1079,7 +1078,7 @@
   </sheetPr>
   <dimension ref="A1:AE46"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane xSplit="2" ySplit="7" topLeftCell="C8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
@@ -2024,16 +2023,19 @@
         <v>1</v>
       </c>
       <c r="G13" s="19">
-        <v>446</v>
+        <f>(447+990-G14)*1.03</f>
+        <v>470.60699999999997</v>
       </c>
       <c r="H13" s="19">
         <v>200</v>
       </c>
       <c r="I13" s="19">
-        <v>446</v>
+        <f>G13</f>
+        <v>470.60699999999997</v>
       </c>
       <c r="J13" s="19">
-        <v>446</v>
+        <f>G13</f>
+        <v>470.60699999999997</v>
       </c>
       <c r="K13" s="20">
         <v>5</v>
@@ -2057,13 +2059,13 @@
         <v>0.47810288774144194</v>
       </c>
       <c r="R13" s="22">
-        <v>929.6</v>
+        <v>800</v>
       </c>
       <c r="S13" s="22">
         <v>4.5</v>
       </c>
       <c r="T13" s="22">
-        <v>2324</v>
+        <v>2000</v>
       </c>
       <c r="U13" s="20"/>
       <c r="V13" s="18">
@@ -2109,16 +2111,19 @@
         <v>1</v>
       </c>
       <c r="G14" s="19">
-        <v>990</v>
+        <f>990*0.99</f>
+        <v>980.1</v>
       </c>
       <c r="H14" s="19">
         <v>400</v>
       </c>
       <c r="I14" s="19">
-        <v>990</v>
+        <f>G14</f>
+        <v>980.1</v>
       </c>
       <c r="J14" s="19">
-        <v>990</v>
+        <f>G14</f>
+        <v>980.1</v>
       </c>
       <c r="K14" s="20">
         <v>1</v>
@@ -2262,13 +2267,6 @@
       <c r="AE15" s="17" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="P16" s="28"/>
-      <c r="Q16" s="28"/>
-      <c r="R16" s="28"/>
-      <c r="S16" s="28"/>
-      <c r="T16" s="28"/>
     </row>
     <row r="23" spans="15:17" x14ac:dyDescent="0.25">
       <c r="O23" s="25"/>
@@ -2371,6 +2369,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101004934E3CB1C58BA43BC6E229E2BF20201" ma:contentTypeVersion="4" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="e33ccc94e63df24f58cb47229b46e190">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="87003a75-b64f-4b22-bf19-aa30740e3d46" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0f0f7a5bb162b669de9ce8ff8278c29f" ns2:_="">
     <xsd:import namespace="87003a75-b64f-4b22-bf19-aa30740e3d46"/>
@@ -2516,22 +2523,21 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
 </p:properties>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{13778B2C-CE05-4B32-8196-2F381FEAC95A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{773946F7-566C-458F-95C9-79B0CCE20E87}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2549,7 +2555,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0155F7A0-74CD-4575-8C0B-A34C113F80FE}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
@@ -2563,12 +2569,4 @@
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{13778B2C-CE05-4B32-8196-2F381FEAC95A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/data/markov/Power_ThermalGen.xlsx
+++ b/data/markov/Power_ThermalGen.xlsx
@@ -8,14 +8,27 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FelixAuer\Git\LEGO-Pyomo\data\markov\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2C5E558-08FE-4872-8DBE-ABF6849C30CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23748E3D-F0C3-4631-BA0E-FF64F8D3D12E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11790" yWindow="-21720" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="50205" yWindow="-21690" windowWidth="19410" windowHeight="20985" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ScenarioA" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -114,7 +127,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="100">
   <si>
     <t>Power - Thermal Generators</t>
   </si>
@@ -411,9 +424,6 @@
   </si>
   <si>
     <t>Gas</t>
-  </si>
-  <si>
-    <t>BaseLoadGenerator</t>
   </si>
   <si>
     <t>VariableGenerator</t>
@@ -872,13 +882,13 @@
   <sheetPr>
     <tabColor rgb="FF008080"/>
   </sheetPr>
-  <dimension ref="A1:AE9"/>
+  <dimension ref="A1:AE8"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="7" topLeftCell="C8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="7" topLeftCell="F8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G10" sqref="G10"/>
+      <selection pane="bottomRight" activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -1414,7 +1424,7 @@
       <c r="A8" s="10"/>
       <c r="B8" s="11"/>
       <c r="C8" s="12" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D8" s="12" t="s">
         <v>98</v>
@@ -1426,16 +1436,16 @@
         <v>1</v>
       </c>
       <c r="G8" s="14">
-        <v>470.60700000000003</v>
+        <v>1000</v>
       </c>
       <c r="H8" s="14">
         <v>200</v>
       </c>
       <c r="I8" s="14">
-        <v>470.60700000000003</v>
+        <v>200</v>
       </c>
       <c r="J8" s="14">
-        <v>470.60700000000003</v>
+        <v>200</v>
       </c>
       <c r="K8" s="13">
         <v>5</v>
@@ -1492,91 +1502,6 @@
         <v>96</v>
       </c>
       <c r="AE8" s="19" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.4">
-      <c r="A9" s="10"/>
-      <c r="B9" s="11"/>
-      <c r="C9" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="D9" s="12" t="s">
-        <v>98</v>
-      </c>
-      <c r="E9" s="12" t="s">
-        <v>95</v>
-      </c>
-      <c r="F9" s="13">
-        <v>1</v>
-      </c>
-      <c r="G9" s="14">
-        <v>978</v>
-      </c>
-      <c r="H9" s="14">
-        <v>400</v>
-      </c>
-      <c r="I9" s="14">
-        <v>980.1</v>
-      </c>
-      <c r="J9" s="14">
-        <v>980.1</v>
-      </c>
-      <c r="K9" s="13">
-        <v>1</v>
-      </c>
-      <c r="L9" s="13">
-        <v>1</v>
-      </c>
-      <c r="M9" s="14">
-        <v>180</v>
-      </c>
-      <c r="N9" s="14">
-        <v>-180</v>
-      </c>
-      <c r="O9" s="14">
-        <v>2.5</v>
-      </c>
-      <c r="P9" s="15">
-        <v>34.42340791738382</v>
-      </c>
-      <c r="Q9" s="15">
-        <v>0.43029259896729771</v>
-      </c>
-      <c r="R9" s="15">
-        <v>348.6</v>
-      </c>
-      <c r="S9" s="15">
-        <v>4.03</v>
-      </c>
-      <c r="T9" s="15">
-        <v>0</v>
-      </c>
-      <c r="U9" s="15"/>
-      <c r="V9" s="13">
-        <v>0</v>
-      </c>
-      <c r="W9" s="15">
-        <v>24781.499100000001</v>
-      </c>
-      <c r="X9" s="16">
-        <v>0.96</v>
-      </c>
-      <c r="Y9" s="17">
-        <v>0.18099999999999999</v>
-      </c>
-      <c r="Z9" s="13"/>
-      <c r="AA9" s="13"/>
-      <c r="AB9" s="18">
-        <v>46.77</v>
-      </c>
-      <c r="AC9" s="18">
-        <v>13.746700000000001</v>
-      </c>
-      <c r="AD9" s="19" t="s">
-        <v>96</v>
-      </c>
-      <c r="AE9" s="19" t="s">
         <v>97</v>
       </c>
     </row>

--- a/data/markov/Power_ThermalGen.xlsx
+++ b/data/markov/Power_ThermalGen.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FelixAuer\Git\LEGO-Pyomo\data\markov\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23748E3D-F0C3-4631-BA0E-FF64F8D3D12E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A79C3C1-1385-4B3D-99F0-6538A8637405}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="50205" yWindow="-21690" windowWidth="19410" windowHeight="20985" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="50205" yWindow="-11250" windowWidth="19410" windowHeight="10545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ScenarioA" sheetId="1" r:id="rId1"/>
@@ -888,7 +888,7 @@
       <pane xSplit="2" ySplit="7" topLeftCell="F8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="M8" sqref="M8"/>
+      <selection pane="bottomRight" activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -1439,7 +1439,7 @@
         <v>1000</v>
       </c>
       <c r="H8" s="14">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="I8" s="14">
         <v>200</v>
@@ -1448,10 +1448,10 @@
         <v>200</v>
       </c>
       <c r="K8" s="13">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L8" s="13">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="M8" s="14">
         <v>200</v>

--- a/data/markov/Power_ThermalGen.xlsx
+++ b/data/markov/Power_ThermalGen.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FelixAuer\Git\LEGO-Pyomo\data\markov\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A79C3C1-1385-4B3D-99F0-6538A8637405}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F27018C-3147-4082-8575-5C27D0CBAEF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="50205" yWindow="-11250" windowWidth="19410" windowHeight="10545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -888,7 +888,7 @@
       <pane xSplit="2" ySplit="7" topLeftCell="F8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="K8" sqref="K8"/>
+      <selection pane="bottomRight" activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -1448,10 +1448,10 @@
         <v>200</v>
       </c>
       <c r="K8" s="13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8" s="13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M8" s="14">
         <v>200</v>
